--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ярик\Desktop\Самостоятельная работа 2.1 Некрасов Пр-21.103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FA99F5-6576-49A4-AC44-654FEF316A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E2CA53-552B-4AEB-897D-2415C355E8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8300" yWindow="340" windowWidth="11240" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -360,6 +360,390 @@
         <v>993</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>A1-7</f>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f t="shared" ref="A3:A65" si="0">A2-7</f>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
